--- a/EasyFanta/fc_quotazioni_serie-a_01.xlsx
+++ b/EasyFanta/fc_quotazioni_serie-a_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\EasyFanta\EasyFanta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\EasyFanta\EasyFanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C102A44C-A61A-45DA-8437-13625940E747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD89E021-F36E-482E-A5B0-43FD03A249CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Giornata 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="663">
   <si>
     <t>Quotazioni Fantaclub Serie A</t>
   </si>
@@ -1863,12 +1863,159 @@
   </si>
   <si>
     <t>Quotazioni Fantaclub Serie A FAST</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Caldara, Sutalo</t>
+  </si>
+  <si>
+    <t>Dijmsiti, Palomino</t>
+  </si>
+  <si>
+    <t>Bellanova, Castagne</t>
+  </si>
+  <si>
+    <t>Caldara</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Malinovskyi, Muriel</t>
+  </si>
+  <si>
+    <t>Ilicic, Zapata</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>Palomino, Dijmsiti, Toloi</t>
+  </si>
+  <si>
+    <t>Gomez, Ilicic, Freuler</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Tuia, Antei</t>
+  </si>
+  <si>
+    <t>Foulon</t>
+  </si>
+  <si>
+    <t>Schiattarella</t>
+  </si>
+  <si>
+    <t>Schiattarella, Tello</t>
+  </si>
+  <si>
+    <t>Moncini</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Letizia</t>
+  </si>
+  <si>
+    <t>Ionita, Hetemaj</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Sansone</t>
+  </si>
+  <si>
+    <t>Sansone, Skov Olsen</t>
+  </si>
+  <si>
+    <t>Mbaye, Dijks</t>
+  </si>
+  <si>
+    <t>Denswil</t>
+  </si>
+  <si>
+    <t>Schouten, Dominguez</t>
+  </si>
+  <si>
+    <t>Svanberg</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Tomiyasu</t>
+  </si>
+  <si>
+    <t>Poli, Medel</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Poli</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Orsolini, Barrow</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Palacio</t>
+  </si>
+  <si>
+    <t>Ballottaggi</t>
+  </si>
+  <si>
+    <t>Klavan</t>
+  </si>
+  <si>
+    <t>Ceppitelli, Walukiewicz</t>
+  </si>
+  <si>
+    <t>Oliva</t>
+  </si>
+  <si>
+    <t>Rog, Naiggolan</t>
+  </si>
+  <si>
+    <t>Oliva, Pereiro</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Pereiro, Pavoletti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2210,19 +2357,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J579"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L579"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K568" sqref="K568"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2417,14 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>614</v>
+      </c>
+      <c r="L5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1580</v>
       </c>
@@ -2288,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1581</v>
       </c>
@@ -2311,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1582</v>
       </c>
@@ -2334,7 +2493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1583</v>
       </c>
@@ -2357,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1584</v>
       </c>
@@ -2380,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1585</v>
       </c>
@@ -2403,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1586</v>
       </c>
@@ -2426,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1587</v>
       </c>
@@ -2449,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1588</v>
       </c>
@@ -2472,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1589</v>
       </c>
@@ -2495,7 +2654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1590</v>
       </c>
@@ -2518,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1591</v>
       </c>
@@ -2541,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1592</v>
       </c>
@@ -2563,8 +2722,11 @@
       <c r="G18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1593</v>
       </c>
@@ -2587,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1594</v>
       </c>
@@ -2610,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1595</v>
       </c>
@@ -2633,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1596</v>
       </c>
@@ -2656,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1597</v>
       </c>
@@ -2679,7 +2841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1598</v>
       </c>
@@ -2702,7 +2864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1599</v>
       </c>
@@ -2725,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1600</v>
       </c>
@@ -2748,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1601</v>
       </c>
@@ -2770,8 +2932,11 @@
       <c r="G27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1602</v>
       </c>
@@ -2794,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1603</v>
       </c>
@@ -2817,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1604</v>
       </c>
@@ -2840,7 +3005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1605</v>
       </c>
@@ -2863,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1606</v>
       </c>
@@ -2886,7 +3051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1607</v>
       </c>
@@ -2909,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1608</v>
       </c>
@@ -2932,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1609</v>
       </c>
@@ -2955,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1610</v>
       </c>
@@ -2977,8 +3142,11 @@
       <c r="G36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1611</v>
       </c>
@@ -3001,7 +3169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1612</v>
       </c>
@@ -3024,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1613</v>
       </c>
@@ -3047,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1614</v>
       </c>
@@ -3070,7 +3238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1615</v>
       </c>
@@ -3093,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1616</v>
       </c>
@@ -3116,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1617</v>
       </c>
@@ -3139,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1618</v>
       </c>
@@ -3162,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1619</v>
       </c>
@@ -3185,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1620</v>
       </c>
@@ -3208,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1621</v>
       </c>
@@ -3231,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1622</v>
       </c>
@@ -3254,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1623</v>
       </c>
@@ -3277,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1624</v>
       </c>
@@ -3300,7 +3468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1625</v>
       </c>
@@ -3323,7 +3491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1626</v>
       </c>
@@ -3346,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1627</v>
       </c>
@@ -3368,8 +3536,11 @@
       <c r="G53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1628</v>
       </c>
@@ -3392,7 +3563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1629</v>
       </c>
@@ -3415,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1630</v>
       </c>
@@ -3438,7 +3609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1631</v>
       </c>
@@ -3461,7 +3632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1632</v>
       </c>
@@ -3484,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1633</v>
       </c>
@@ -3507,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1634</v>
       </c>
@@ -3530,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1635</v>
       </c>
@@ -3553,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1636</v>
       </c>
@@ -3576,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1637</v>
       </c>
@@ -3599,7 +3770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1638</v>
       </c>
@@ -3622,7 +3793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1639</v>
       </c>
@@ -3645,7 +3816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1640</v>
       </c>
@@ -3668,7 +3839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1641</v>
       </c>
@@ -3691,7 +3862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1642</v>
       </c>
@@ -3714,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1643</v>
       </c>
@@ -3737,7 +3908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1644</v>
       </c>
@@ -3759,8 +3930,11 @@
       <c r="G70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1645</v>
       </c>
@@ -3783,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1646</v>
       </c>
@@ -3806,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1647</v>
       </c>
@@ -3829,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1648</v>
       </c>
@@ -3852,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1649</v>
       </c>
@@ -3874,8 +4048,14 @@
       <c r="G75">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K75" t="s">
+        <v>310</v>
+      </c>
+      <c r="L75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1650</v>
       </c>
@@ -3898,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1652</v>
       </c>
@@ -3921,7 +4101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1651</v>
       </c>
@@ -3944,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1653</v>
       </c>
@@ -3967,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1654</v>
       </c>
@@ -3989,8 +4169,11 @@
       <c r="G80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L80" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1655</v>
       </c>
@@ -4013,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1656</v>
       </c>
@@ -4036,7 +4219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1657</v>
       </c>
@@ -4059,7 +4242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1658</v>
       </c>
@@ -4082,7 +4265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1659</v>
       </c>
@@ -4105,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1660</v>
       </c>
@@ -4128,7 +4311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1661</v>
       </c>
@@ -4151,7 +4334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1662</v>
       </c>
@@ -4174,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1663</v>
       </c>
@@ -4197,7 +4380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1664</v>
       </c>
@@ -4220,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1665</v>
       </c>
@@ -4243,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1666</v>
       </c>
@@ -4266,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1667</v>
       </c>
@@ -4288,8 +4471,11 @@
       <c r="G93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1668</v>
       </c>
@@ -4311,8 +4497,14 @@
       <c r="G94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>310</v>
+      </c>
+      <c r="L94" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1669</v>
       </c>
@@ -4335,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1670</v>
       </c>
@@ -4358,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1671</v>
       </c>
@@ -4381,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1672</v>
       </c>
@@ -4404,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1673</v>
       </c>
@@ -4426,8 +4618,11 @@
       <c r="G99">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L99" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1674</v>
       </c>
@@ -4450,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1675</v>
       </c>
@@ -4472,8 +4667,14 @@
       <c r="G101">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>310</v>
+      </c>
+      <c r="L101" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1676</v>
       </c>
@@ -4496,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1677</v>
       </c>
@@ -4519,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1678</v>
       </c>
@@ -4542,7 +4743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1679</v>
       </c>
@@ -4565,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1680</v>
       </c>
@@ -4588,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1681</v>
       </c>
@@ -4611,7 +4812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1682</v>
       </c>
@@ -4634,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1683</v>
       </c>
@@ -4657,7 +4858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1684</v>
       </c>
@@ -4680,7 +4881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1685</v>
       </c>
@@ -4703,7 +4904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1686</v>
       </c>
@@ -4726,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1687</v>
       </c>
@@ -4749,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1688</v>
       </c>
@@ -4772,7 +4973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1689</v>
       </c>
@@ -4795,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1691</v>
       </c>
@@ -4818,7 +5019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1690</v>
       </c>
@@ -4840,8 +5041,11 @@
       <c r="G117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K117" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1692</v>
       </c>
@@ -4864,7 +5068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1693</v>
       </c>
@@ -4887,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1694</v>
       </c>
@@ -4910,7 +5114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1695</v>
       </c>
@@ -4933,7 +5137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1696</v>
       </c>
@@ -4956,7 +5160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1697</v>
       </c>
@@ -4979,7 +5183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1698</v>
       </c>
@@ -5002,7 +5206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1699</v>
       </c>
@@ -5025,7 +5229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1700</v>
       </c>
@@ -5047,8 +5251,11 @@
       <c r="G126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1701</v>
       </c>
@@ -5071,7 +5278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1702</v>
       </c>
@@ -5094,7 +5301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1703</v>
       </c>
@@ -5117,7 +5324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1704</v>
       </c>
@@ -5140,7 +5347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1705</v>
       </c>
@@ -5163,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1706</v>
       </c>
@@ -5185,8 +5392,14 @@
       <c r="G132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K132" t="s">
+        <v>310</v>
+      </c>
+      <c r="L132" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1707</v>
       </c>
@@ -5209,7 +5422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1708</v>
       </c>
@@ -5232,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1709</v>
       </c>
@@ -5255,7 +5468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1710</v>
       </c>
@@ -5278,7 +5491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1711</v>
       </c>
@@ -5301,7 +5514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1712</v>
       </c>
@@ -5324,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1713</v>
       </c>
@@ -5347,7 +5560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1714</v>
       </c>
@@ -5370,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1715</v>
       </c>
@@ -5393,7 +5606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1716</v>
       </c>
@@ -5416,7 +5629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1717</v>
       </c>
@@ -5439,7 +5652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1718</v>
       </c>
@@ -5462,7 +5675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1719</v>
       </c>
@@ -5485,7 +5698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1720</v>
       </c>
@@ -5507,8 +5720,11 @@
       <c r="G146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L146" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1721</v>
       </c>
@@ -5531,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1722</v>
       </c>
@@ -5554,7 +5770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1723</v>
       </c>
@@ -5577,7 +5793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1724</v>
       </c>
@@ -5600,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1725</v>
       </c>
@@ -5623,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1726</v>
       </c>
@@ -5645,8 +5861,11 @@
       <c r="G152">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1727</v>
       </c>
@@ -5669,7 +5888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1728</v>
       </c>
@@ -5692,7 +5911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1729</v>
       </c>
@@ -5714,8 +5933,11 @@
       <c r="G155">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K155" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1730</v>
       </c>
@@ -5738,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1731</v>
       </c>
@@ -5761,7 +5983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1732</v>
       </c>
@@ -5783,8 +6005,14 @@
       <c r="G158">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
+        <v>310</v>
+      </c>
+      <c r="L158" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1733</v>
       </c>
@@ -5807,7 +6035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1734</v>
       </c>
@@ -5830,7 +6058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1735</v>
       </c>
@@ -5853,7 +6081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1736</v>
       </c>
@@ -5876,7 +6104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1737</v>
       </c>
@@ -5899,7 +6127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1738</v>
       </c>
@@ -5922,7 +6150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1739</v>
       </c>
@@ -5945,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1740</v>
       </c>
@@ -5968,7 +6196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1741</v>
       </c>
@@ -5991,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1742</v>
       </c>
@@ -6014,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1743</v>
       </c>
@@ -6037,7 +6265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1744</v>
       </c>
@@ -6059,8 +6287,11 @@
       <c r="G170">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L170" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1745</v>
       </c>
@@ -6083,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1746</v>
       </c>
@@ -6106,7 +6337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1747</v>
       </c>
@@ -6129,7 +6360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1748</v>
       </c>
@@ -6152,7 +6383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1749</v>
       </c>
@@ -6175,7 +6406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1750</v>
       </c>
@@ -6198,7 +6429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1751</v>
       </c>
@@ -6221,7 +6452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1752</v>
       </c>
@@ -6244,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1753</v>
       </c>
@@ -6266,8 +6497,14 @@
       <c r="G179">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K179" t="s">
+        <v>310</v>
+      </c>
+      <c r="L179" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1754</v>
       </c>
@@ -6290,7 +6527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1755</v>
       </c>
@@ -6313,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1756</v>
       </c>
@@ -6336,7 +6573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1757</v>
       </c>
@@ -6359,7 +6596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1758</v>
       </c>
@@ -6382,7 +6619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1759</v>
       </c>
@@ -6405,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1760</v>
       </c>
@@ -6428,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1761</v>
       </c>
@@ -6450,8 +6687,11 @@
       <c r="G187">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K187" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1762</v>
       </c>
@@ -6473,8 +6713,11 @@
       <c r="G188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K188" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1763</v>
       </c>
@@ -6497,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1764</v>
       </c>
@@ -6520,7 +6763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1765</v>
       </c>
@@ -6543,7 +6786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1766</v>
       </c>
@@ -6566,7 +6809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1767</v>
       </c>
@@ -6589,7 +6832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1768</v>
       </c>
@@ -6612,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1769</v>
       </c>
@@ -6635,7 +6878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1770</v>
       </c>
@@ -6658,7 +6901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1771</v>
       </c>
@@ -6681,7 +6924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1772</v>
       </c>
@@ -6704,7 +6947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1773</v>
       </c>
@@ -6727,7 +6970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1774</v>
       </c>
@@ -6750,7 +6993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1775</v>
       </c>
@@ -6773,7 +7016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1776</v>
       </c>
@@ -6795,8 +7038,11 @@
       <c r="G202">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L202" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1777</v>
       </c>
@@ -6819,7 +7065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1778</v>
       </c>
@@ -6842,7 +7088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1779</v>
       </c>
@@ -6865,7 +7111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1780</v>
       </c>
@@ -6888,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1781</v>
       </c>
@@ -6911,7 +7157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1782</v>
       </c>
@@ -6934,7 +7180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1783</v>
       </c>
@@ -6957,7 +7203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1784</v>
       </c>
@@ -6980,7 +7226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1785</v>
       </c>
@@ -7002,8 +7248,14 @@
       <c r="G211">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K211" t="s">
+        <v>310</v>
+      </c>
+      <c r="L211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1786</v>
       </c>
@@ -7026,7 +7278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1787</v>
       </c>
@@ -7049,7 +7301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1788</v>
       </c>
@@ -7072,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1789</v>
       </c>
@@ -7095,7 +7347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1790</v>
       </c>
@@ -7118,7 +7370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1792</v>
       </c>
@@ -7141,7 +7393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1791</v>
       </c>
@@ -7164,7 +7416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1793</v>
       </c>
@@ -7187,7 +7439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1794</v>
       </c>
@@ -7210,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1795</v>
       </c>
@@ -7232,8 +7484,11 @@
       <c r="G221">
         <v>7</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K221" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1796</v>
       </c>
@@ -7256,7 +7511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1797</v>
       </c>
@@ -7279,7 +7534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1798</v>
       </c>
@@ -7670,7 +7925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1815</v>
       </c>
@@ -7693,7 +7948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1816</v>
       </c>
@@ -7716,7 +7971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1817</v>
       </c>
@@ -7739,7 +7994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1818</v>
       </c>
@@ -7762,7 +8017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1819</v>
       </c>
@@ -7785,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1820</v>
       </c>
@@ -7808,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1821</v>
       </c>
@@ -7831,7 +8086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1822</v>
       </c>
@@ -7854,7 +8109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1823</v>
       </c>
@@ -7877,7 +8132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1824</v>
       </c>
@@ -7899,8 +8154,11 @@
       <c r="G250">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L250" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1825</v>
       </c>
@@ -7923,7 +8181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1826</v>
       </c>
@@ -7946,7 +8204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1827</v>
       </c>
@@ -7969,7 +8227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1828</v>
       </c>
@@ -7992,7 +8250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1829</v>
       </c>
@@ -8014,8 +8272,14 @@
       <c r="G255">
         <v>14</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K255" t="s">
+        <v>310</v>
+      </c>
+      <c r="L255" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1830</v>
       </c>
@@ -8037,8 +8301,14 @@
       <c r="G256">
         <v>10</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K256" t="s">
+        <v>310</v>
+      </c>
+      <c r="L256" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1831</v>
       </c>
@@ -8061,7 +8331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1832</v>
       </c>
@@ -8084,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1833</v>
       </c>
@@ -8107,7 +8377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1834</v>
       </c>
@@ -8129,8 +8399,11 @@
       <c r="G260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L260" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>1835</v>
       </c>
@@ -8153,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1836</v>
       </c>
@@ -8176,7 +8449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1837</v>
       </c>
@@ -8199,7 +8472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1838</v>
       </c>
@@ -8222,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1839</v>
       </c>
@@ -8245,7 +8518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1840</v>
       </c>
@@ -8268,7 +8541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1841</v>
       </c>
@@ -8290,8 +8563,14 @@
       <c r="G267">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K267" t="s">
+        <v>310</v>
+      </c>
+      <c r="L267" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1842</v>
       </c>
@@ -8314,7 +8593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1843</v>
       </c>
@@ -8337,7 +8616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1844</v>
       </c>
@@ -8360,7 +8639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1845</v>
       </c>
@@ -8383,7 +8662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1846</v>
       </c>
@@ -9510,7 +9789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1886</v>
       </c>
@@ -9533,7 +9812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1887</v>
       </c>
@@ -9556,7 +9835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1888</v>
       </c>
@@ -9579,7 +9858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2011</v>
       </c>
@@ -9602,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1889</v>
       </c>
@@ -9625,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1890</v>
       </c>
@@ -9648,7 +9927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2013</v>
       </c>
@@ -9671,7 +9950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1891</v>
       </c>
@@ -9694,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2014</v>
       </c>
@@ -9717,7 +9996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1892</v>
       </c>
@@ -9739,8 +10018,11 @@
       <c r="G330">
         <v>16</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K330" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1893</v>
       </c>
@@ -9763,7 +10045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1894</v>
       </c>
@@ -9786,7 +10068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>1895</v>
       </c>
@@ -9809,7 +10091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1896</v>
       </c>
@@ -9832,7 +10114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>1897</v>
       </c>
@@ -9855,7 +10137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1898</v>
       </c>
@@ -9878,7 +10160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2016</v>
       </c>
@@ -9901,7 +10183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1899</v>
       </c>
@@ -9923,8 +10205,11 @@
       <c r="G338">
         <v>7</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L338" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1900</v>
       </c>
@@ -9947,7 +10232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2017</v>
       </c>
@@ -9970,7 +10255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1901</v>
       </c>
@@ -9993,7 +10278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1902</v>
       </c>
@@ -10016,7 +10301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1903</v>
       </c>
@@ -10039,7 +10324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2020</v>
       </c>
@@ -10062,7 +10347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1904</v>
       </c>
@@ -10085,7 +10370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1905</v>
       </c>
@@ -10108,7 +10393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1906</v>
       </c>
@@ -10131,7 +10416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1907</v>
       </c>
@@ -10153,8 +10438,14 @@
       <c r="G348">
         <v>17</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K348" t="s">
+        <v>310</v>
+      </c>
+      <c r="L348" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1908</v>
       </c>
@@ -10177,7 +10468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1909</v>
       </c>
@@ -10200,7 +10491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -10222,8 +10513,14 @@
       <c r="G351">
         <v>28</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K351" t="s">
+        <v>628</v>
+      </c>
+      <c r="L351" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1910</v>
       </c>
@@ -10246,7 +10543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2024</v>
       </c>
@@ -10269,7 +10566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1911</v>
       </c>
@@ -10292,7 +10589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1912</v>
       </c>
@@ -10315,7 +10612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1913</v>
       </c>
@@ -10337,8 +10634,14 @@
       <c r="G356">
         <v>7</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K356" t="s">
+        <v>310</v>
+      </c>
+      <c r="L356" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2028</v>
       </c>
@@ -10360,8 +10663,11 @@
       <c r="G357">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K357" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1914</v>
       </c>
@@ -10383,8 +10689,14 @@
       <c r="G358">
         <v>10</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K358" t="s">
+        <v>310</v>
+      </c>
+      <c r="L358" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1915</v>
       </c>
@@ -10407,7 +10719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>1916</v>
       </c>
@@ -10430,7 +10742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1917</v>
       </c>
@@ -10453,7 +10765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1918</v>
       </c>
@@ -10476,7 +10788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1919</v>
       </c>
@@ -10499,7 +10811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>1920</v>
       </c>
@@ -10522,7 +10834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>1921</v>
       </c>
@@ -10545,7 +10857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2034</v>
       </c>
@@ -10568,7 +10880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>1922</v>
       </c>
@@ -10591,7 +10903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>1923</v>
       </c>
@@ -10982,7 +11294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2038</v>
       </c>
@@ -11005,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2039</v>
       </c>
@@ -11027,8 +11339,14 @@
       <c r="G386">
         <v>24</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K386" t="s">
+        <v>627</v>
+      </c>
+      <c r="L386" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1939</v>
       </c>
@@ -11051,7 +11369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2041</v>
       </c>
@@ -11074,7 +11392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1940</v>
       </c>
@@ -11096,8 +11414,14 @@
       <c r="G389">
         <v>8</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K389" t="s">
+        <v>310</v>
+      </c>
+      <c r="L389" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1941</v>
       </c>
@@ -11120,7 +11444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1942</v>
       </c>
@@ -11143,7 +11467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2044</v>
       </c>
@@ -11166,7 +11490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1943</v>
       </c>
@@ -11189,7 +11513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1944</v>
       </c>
@@ -11212,7 +11536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1945</v>
       </c>
@@ -11235,7 +11559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1946</v>
       </c>
@@ -11257,8 +11581,11 @@
       <c r="G396">
         <v>23</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L396" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1947</v>
       </c>
@@ -11280,8 +11607,11 @@
       <c r="G397">
         <v>15</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K397" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1948</v>
       </c>
@@ -11304,7 +11634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>1949</v>
       </c>
@@ -11326,8 +11656,14 @@
       <c r="G399">
         <v>6</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K399" t="s">
+        <v>310</v>
+      </c>
+      <c r="L399" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1950</v>
       </c>
@@ -11350,7 +11686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2047</v>
       </c>
@@ -11373,7 +11709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1951</v>
       </c>
@@ -11396,7 +11732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1952</v>
       </c>
@@ -11419,7 +11755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2049</v>
       </c>
@@ -11442,7 +11778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>1953</v>
       </c>
@@ -11465,7 +11801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2052</v>
       </c>
@@ -11488,7 +11824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>1954</v>
       </c>
@@ -11511,7 +11847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>1955</v>
       </c>
@@ -11534,7 +11870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>1956</v>
       </c>
@@ -11557,7 +11893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1957</v>
       </c>
@@ -11579,8 +11915,14 @@
       <c r="G410">
         <v>12</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K410" t="s">
+        <v>310</v>
+      </c>
+      <c r="L410" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2055</v>
       </c>
@@ -11603,7 +11945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1958</v>
       </c>
@@ -11626,7 +11968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1959</v>
       </c>
@@ -11649,7 +11991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1960</v>
       </c>
@@ -11672,7 +12014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2056</v>
       </c>
@@ -11695,7 +12037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1961</v>
       </c>
@@ -11718,7 +12060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1962</v>
       </c>
@@ -11741,7 +12083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1963</v>
       </c>
@@ -11764,7 +12106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1964</v>
       </c>
@@ -11787,7 +12129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1965</v>
       </c>
@@ -11809,8 +12151,14 @@
       <c r="G420">
         <v>13</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K420" t="s">
+        <v>310</v>
+      </c>
+      <c r="L420" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1966</v>
       </c>
@@ -11833,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1967</v>
       </c>
@@ -11856,7 +12204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2060</v>
       </c>
@@ -11879,7 +12227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2062</v>
       </c>
@@ -11902,7 +12250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1968</v>
       </c>
@@ -11924,8 +12272,11 @@
       <c r="G425">
         <v>6</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L425" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1969</v>
       </c>
@@ -11948,7 +12299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1970</v>
       </c>
@@ -11970,8 +12321,11 @@
       <c r="G427">
         <v>6</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L427" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1971</v>
       </c>
@@ -11994,7 +12348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1972</v>
       </c>
@@ -12017,7 +12371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1973</v>
       </c>
@@ -12040,7 +12394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>1974</v>
       </c>
@@ -12063,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>1975</v>
       </c>
@@ -12085,8 +12439,14 @@
       <c r="G432">
         <v>19</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K432" t="s">
+        <v>310</v>
+      </c>
+      <c r="L432" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2065</v>
       </c>
@@ -12109,7 +12469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>1976</v>
       </c>
@@ -12132,7 +12492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>1977</v>
       </c>
@@ -12154,8 +12514,11 @@
       <c r="G435">
         <v>8</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L435" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1978</v>
       </c>
@@ -12178,7 +12541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>1979</v>
       </c>
@@ -12201,7 +12564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2067</v>
       </c>
@@ -12224,7 +12587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2077</v>
       </c>
@@ -12247,7 +12610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>1980</v>
       </c>
@@ -12270,7 +12633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>1981</v>
       </c>
@@ -12293,7 +12656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2070</v>
       </c>
@@ -12316,7 +12679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1982</v>
       </c>
@@ -12339,7 +12702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2071</v>
       </c>
@@ -12362,7 +12725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1983</v>
       </c>
@@ -12385,7 +12748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>1984</v>
       </c>
@@ -12408,7 +12771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1985</v>
       </c>
@@ -12430,8 +12793,11 @@
       <c r="G447">
         <v>9</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K447" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2073</v>
       </c>
@@ -12454,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1986</v>
       </c>
@@ -12477,7 +12843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2074</v>
       </c>
@@ -12500,7 +12866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2075</v>
       </c>
@@ -12523,7 +12889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1987</v>
       </c>
@@ -12546,7 +12912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2076</v>
       </c>
@@ -12569,7 +12935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1988</v>
       </c>
@@ -12592,7 +12958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1989</v>
       </c>
@@ -12615,7 +12981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2079</v>
       </c>
@@ -12638,7 +13004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2080</v>
       </c>
@@ -12661,7 +13027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2081</v>
       </c>
@@ -12684,7 +13050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1991</v>
       </c>
@@ -12707,7 +13073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2082</v>
       </c>
@@ -12729,8 +13095,14 @@
       <c r="G460">
         <v>24</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K460" t="s">
+        <v>310</v>
+      </c>
+      <c r="L460" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2083</v>
       </c>
@@ -12753,7 +13125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1993</v>
       </c>
@@ -12776,7 +13148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1996</v>
       </c>
@@ -12799,7 +13171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1997</v>
       </c>
@@ -13558,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2104</v>
       </c>
@@ -13581,7 +13953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2021</v>
       </c>
@@ -13604,7 +13976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2105</v>
       </c>
@@ -13627,7 +13999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2106</v>
       </c>
@@ -13650,7 +14022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2023</v>
       </c>
@@ -13673,7 +14045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2025</v>
       </c>
@@ -13696,7 +14068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2107</v>
       </c>
@@ -13719,7 +14091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2026</v>
       </c>
@@ -13742,7 +14114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2027</v>
       </c>
@@ -13764,8 +14136,14 @@
       <c r="G505">
         <v>31</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K505" t="s">
+        <v>628</v>
+      </c>
+      <c r="L505" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2108</v>
       </c>
@@ -13788,7 +14166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2109</v>
       </c>
@@ -13811,7 +14189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2030</v>
       </c>
@@ -13834,7 +14212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2029</v>
       </c>
@@ -13856,8 +14234,11 @@
       <c r="G509">
         <v>10</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K509" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2031</v>
       </c>
@@ -13879,8 +14260,11 @@
       <c r="G510">
         <v>27</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K510" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2032</v>
       </c>
@@ -13903,7 +14287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2033</v>
       </c>
@@ -14294,7 +14678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2121</v>
       </c>
@@ -14317,7 +14701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2122</v>
       </c>
@@ -14340,7 +14724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2123</v>
       </c>
@@ -14362,8 +14746,11 @@
       <c r="G531">
         <v>10</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L531" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2124</v>
       </c>
@@ -14385,8 +14772,14 @@
       <c r="G532">
         <v>27</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K532" t="s">
+        <v>627</v>
+      </c>
+      <c r="L532" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2125</v>
       </c>
@@ -14409,7 +14802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2126</v>
       </c>
@@ -14432,7 +14825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2127</v>
       </c>
@@ -14455,7 +14848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2045</v>
       </c>
@@ -14477,8 +14870,14 @@
       <c r="G536">
         <v>20</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K536" t="s">
+        <v>310</v>
+      </c>
+      <c r="L536" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2128</v>
       </c>
@@ -14501,7 +14900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2046</v>
       </c>
@@ -14524,7 +14923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2129</v>
       </c>
@@ -14546,8 +14945,14 @@
       <c r="G539">
         <v>16</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K539" t="s">
+        <v>310</v>
+      </c>
+      <c r="L539" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2130</v>
       </c>
@@ -14570,7 +14975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2048</v>
       </c>
@@ -14593,7 +14998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2131</v>
       </c>
@@ -14615,8 +15020,14 @@
       <c r="G542">
         <v>17</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K542" t="s">
+        <v>626</v>
+      </c>
+      <c r="L542" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2078</v>
       </c>
@@ -14639,7 +15050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2050</v>
       </c>
@@ -14660,6 +15071,12 @@
       </c>
       <c r="G544">
         <v>11</v>
+      </c>
+      <c r="K544" t="s">
+        <v>628</v>
+      </c>
+      <c r="L544" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -15030,7 +15447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2061</v>
       </c>
@@ -15052,8 +15469,11 @@
       <c r="G561">
         <v>12</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L561" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2142</v>
       </c>
@@ -15075,8 +15495,11 @@
       <c r="G562">
         <v>10</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L562" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2143</v>
       </c>
@@ -15098,8 +15521,14 @@
       <c r="G563">
         <v>12</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K563" t="s">
+        <v>310</v>
+      </c>
+      <c r="L563" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2144</v>
       </c>
@@ -15122,7 +15551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2145</v>
       </c>
@@ -15145,7 +15574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>2063</v>
       </c>
@@ -15168,7 +15597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>2146</v>
       </c>
@@ -15190,8 +15619,14 @@
       <c r="G567">
         <v>22</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K567" t="s">
+        <v>629</v>
+      </c>
+      <c r="L567" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2147</v>
       </c>
@@ -15214,7 +15649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2064</v>
       </c>
@@ -15236,8 +15671,11 @@
       <c r="G569">
         <v>9</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L569" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>2066</v>
       </c>
@@ -15260,7 +15698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2148</v>
       </c>
@@ -15283,7 +15721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>2149</v>
       </c>
@@ -15306,7 +15744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2068</v>
       </c>
@@ -15329,7 +15767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2150</v>
       </c>
@@ -15352,7 +15790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2069</v>
       </c>
@@ -15375,7 +15813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>2072</v>
       </c>
@@ -15398,7 +15836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>2151</v>
       </c>
@@ -15421,7 +15859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>2152</v>
       </c>
@@ -15443,8 +15881,14 @@
       <c r="G578">
         <v>35</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K578" t="s">
+        <v>629</v>
+      </c>
+      <c r="L578" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>2153</v>
       </c>
@@ -15475,7 +15919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J579"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
